--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850946.9665345167</v>
+        <v>936142.7754443503</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13464970.00451359</v>
+        <v>13451775.83666768</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7514752.963826817</v>
+        <v>7533315.649926175</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8471153.354838286</v>
+        <v>8470799.776158895</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>178.8948621820434</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17.72747161145599</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.6602067166113557</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443465</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>277.2537380988379</v>
       </c>
       <c r="H5" t="n">
-        <v>271.9733926516305</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9466692048817</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.01012405923018</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0530866647906</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
-        <v>210.999833426395</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.12459493159</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>51.15221984784375</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>206.7961746898972</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>60.1862576395474</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1757061518383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.71482775085059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>185.6279506608898</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.780673098473523</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>88.02739619913726</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447886</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>126.3796986693933</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>74.07582455461173</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>111.0980246761667</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>106.5295869551745</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099232973</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>172.4456245554206</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>62.45439117602597</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.9967189074651</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.6059442291525</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6767922104160061</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1740,7 +1742,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>164.2532214802697</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1847,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>145.2481701217143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>14.31259208839343</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.70975721460027</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>46.68696776231194</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.45713216103746</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>283.9746808062639</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.0138334144179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>164.852293113478</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117.0340619339633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>256.727352354685</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.3866485609004</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.596724502526126</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.31259208839388</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.685854660705078</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>81.77200357366327</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>298.4011241571809</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>142.4741679217961</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>19.78589926923084</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.8973285420753</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.1690567639045</v>
+        <v>170.454115072569</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>134.9994691657081</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6484612441729</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>12.87606160420838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>99.44060882562812</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3323,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.39703039895313</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.7614152959625</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3560,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>174.5639451167764</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>149.3991884271814</v>
       </c>
       <c r="X40" t="n">
-        <v>131.552212841269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>336.6231575752198</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3794,13 +3796,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.049105616774682</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.58531784835306</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>85.1123920812839</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>226.1265775300255</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.66139061606894</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.507260563589417</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433443</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268593</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268593</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268593</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268593</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268593</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268593</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158255</v>
+        <v>391.8003511574026</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158255</v>
+        <v>217.3473218762756</v>
       </c>
       <c r="D3" t="n">
-        <v>32.90858395457428</v>
+        <v>217.3473218762756</v>
       </c>
       <c r="E3" t="n">
-        <v>32.90858395457428</v>
+        <v>217.3473218762756</v>
       </c>
       <c r="F3" t="n">
-        <v>32.90858395457428</v>
+        <v>217.3473218762756</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>79.80814069872474</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>79.80814069872474</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
@@ -4422,37 +4424,37 @@
         <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652805</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487955</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487955</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487955</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323105</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158255</v>
+        <v>749.4354731939554</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158255</v>
+        <v>560.0156881774706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
       <c r="C5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
       <c r="D5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
       <c r="E5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
       <c r="F5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
       <c r="G5" t="n">
-        <v>407.6261181277624</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H5" t="n">
-        <v>132.9055194897518</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I5" t="n">
-        <v>27.90888392926516</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>80.8534286645222</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>210.942095011266</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L5" t="n">
-        <v>409.2303506990942</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>661.5336786524894</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>922.5333466060118</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>1155.652670727842</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1320.11361960069</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1395.444196463258</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1353.009727716561</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>1205.481357348086</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>992.3502124729391</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6890054713331</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>407.6261181277624</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W5" t="n">
-        <v>407.6261181277624</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6261181277624</v>
+        <v>1099.916760263505</v>
       </c>
       <c r="Y5" t="n">
-        <v>407.6261181277624</v>
+        <v>709.7774282876931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>534.2842155063029</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C6" t="n">
-        <v>482.615306569087</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D6" t="n">
-        <v>333.6808969078357</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E6" t="n">
-        <v>174.4434419023802</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F6" t="n">
-        <v>27.90888392926516</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G6" t="n">
-        <v>27.90888392926516</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>27.90888392926516</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>27.90888392926516</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>40.62444511014934</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K6" t="n">
-        <v>140.5121891979917</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1461291925038</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M6" t="n">
-        <v>551.2942853858385</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N6" t="n">
-        <v>801.942423362146</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.0167063233</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1155.879008147615</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q6" t="n">
-        <v>1204.133371204991</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R6" t="n">
-        <v>1204.133371204991</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1204.133371204991</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1204.133371204991</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U6" t="n">
-        <v>1204.133371204991</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="V6" t="n">
-        <v>1204.133371204991</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="W6" t="n">
-        <v>949.8960144767896</v>
+        <v>1525.353274033374</v>
       </c>
       <c r="X6" t="n">
-        <v>742.0445142712567</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y6" t="n">
-        <v>534.2842155063029</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2782840826372</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>27.90888392926516</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>27.90888392926516</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>42.75160764526225</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L7" t="n">
-        <v>91.65098153302911</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4667981137212</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8367430014468</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O7" t="n">
-        <v>244.2087312010594</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P7" t="n">
-        <v>256.2692794264736</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V7" t="n">
-        <v>208.0724837185437</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W7" t="n">
-        <v>208.0724837185437</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="X7" t="n">
-        <v>208.0724837185437</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.0724837185437</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287318</v>
+        <v>1340.61546423472</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1340.61546423472</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1340.61546423472</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1251.69890241741</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>840.7129976278025</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>424.8784808656982</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>173.6006955371263</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>412.4113998844109</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>745.5789575721444</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1147.961497459642</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1561.468815899345</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1938.596789767457</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2225.965789440893</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2393.595193823333</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2405.694710185352</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2278.038448903137</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2278.038448903137</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2024.447006848405</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>1693.384119504834</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>1340.61546423472</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>1340.61546423472</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>1340.61546423472</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>297.3909886915126</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>122.9379594103856</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>104.0351264502472</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>277.7682440873332</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>557.6964019039194</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>903.716226889926</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1273.302811944936</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1589.182537471368</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1823.37079941158</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1792.988746641007</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1598.702261611631</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1370.607589642012</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1135.455481410269</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>881.2181246820674</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>673.3666244765345</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>465.6063257115806</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>485.1256997650975</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>317.0810262949508</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>167.8245992011861</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>60.21895581212091</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>48.11389420370704</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>107.4998553139092</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>213.3992373663732</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>328.3135705658664</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>448.3530236739875</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>538.915798650212</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>597.3459267107204</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1792.126722677733</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.126722677733</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5051,7 +5053,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.126722677733</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.7578170212613</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C13" t="n">
-        <v>477.7578170212613</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5223,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.321240915451</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.358723975039</v>
+        <v>1827.135477358711</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>672.0956213641086</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>257.0231712091051</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.060412955384</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.060412955384</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.921080979572</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="15">
@@ -5416,13 +5418,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>770.7703664058491</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>622.857272823456</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>475.9673253255456</v>
       </c>
       <c r="G16" t="n">
         <v>310.0549803959803</v>
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>364.5418494269122</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C19" t="n">
-        <v>364.5418494269122</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218342</v>
@@ -5671,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W19" t="n">
-        <v>409.7032203507509</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X19" t="n">
-        <v>409.7032203507509</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y19" t="n">
-        <v>409.7032203507509</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1232.150970528558</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C20" t="n">
-        <v>1232.150970528558</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D20" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.23093222317</v>
+        <v>2887.609431745067</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.23093222317</v>
+        <v>2718.67324881716</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
         <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
         <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
         <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
         <v>3312.68505425063</v>
@@ -5932,28 +5934,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.18865157221</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674193</v>
+        <v>3069.257896575306</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.406521530663</v>
+        <v>3069.257896575306</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.154071768027</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>736.8185791558162</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>325.8326743662087</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5987,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,10 +6001,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296686</v>
@@ -6014,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6175,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V25" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W25" t="n">
-        <v>342.3669689068678</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X25" t="n">
-        <v>114.3774180088505</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.3774180088505</v>
+        <v>120.6003534763939</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052369</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3323.992968576317</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3118.015220960539</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3118.015220960539</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V26" t="n">
-        <v>2786.952333616968</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W26" t="n">
-        <v>2434.183678346854</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X26" t="n">
-        <v>2434.183678346854</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y26" t="n">
-        <v>2434.183678346854</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064548</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.6287558445192</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>919.1841223225233</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>727.4982381493496</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T28" t="n">
-        <v>505.7316227188756</v>
+        <v>3243.007838201431</v>
       </c>
       <c r="U28" t="n">
-        <v>216.6287558445192</v>
+        <v>2953.904971327074</v>
       </c>
       <c r="V28" t="n">
-        <v>216.6287558445192</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="W28" t="n">
-        <v>216.6287558445192</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X28" t="n">
-        <v>216.6287558445192</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.6287558445192</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3071.401852205159</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3071.401852205159</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3071.401852205159</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W29" t="n">
-        <v>2718.633196935045</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X29" t="n">
-        <v>2345.167438673965</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3103.839206178698</v>
+        <v>2934.97015623138</v>
       </c>
       <c r="C31" t="n">
-        <v>3103.839206178698</v>
+        <v>2766.033973303473</v>
       </c>
       <c r="D31" t="n">
-        <v>2953.722566766362</v>
+        <v>2766.033973303473</v>
       </c>
       <c r="E31" t="n">
-        <v>2805.809473183969</v>
+        <v>2618.12087972108</v>
       </c>
       <c r="F31" t="n">
-        <v>2658.919525686058</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G31" t="n">
-        <v>2491.216689060777</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H31" t="n">
         <v>2471.23093222317</v>
@@ -6619,25 +6621,25 @@
         <v>2471.23093222317</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K31" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M31" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O31" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q31" t="n">
         <v>3325.605821609171</v>
@@ -6649,22 +6651,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V31" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W31" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X31" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y31" t="n">
-        <v>3103.839206178698</v>
+        <v>3116.61862106162</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6728,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.140063348092</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
         <v>312.3844025601599</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.4780323548192</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269123</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218343</v>
@@ -6901,7 +6903,7 @@
         <v>920.887005818185</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.126497185059</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1274.53911114974</v>
+        <v>2106.031998942027</v>
       </c>
       <c r="C35" t="n">
-        <v>905.5765942093283</v>
+        <v>1737.069482001616</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>1378.803783394865</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>993.0155307966209</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>582.0296260070133</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>166.9571758520098</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,16 +6937,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.278283189673</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.138951213862</v>
+        <v>2492.631839006149</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
         <v>767.0908251999817</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3325.605821609171</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="C37" t="n">
-        <v>3156.669638681264</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="D37" t="n">
-        <v>3006.552999268928</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E37" t="n">
-        <v>2858.639905686535</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F37" t="n">
-        <v>2711.749958188625</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G37" t="n">
-        <v>2568.556609404824</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>2568.556609404824</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.605821609171</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.605821609171</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y37" t="n">
-        <v>3325.605821609171</v>
+        <v>376.7853475753374</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,10 +7174,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
         <v>66.51211643218342</v>
@@ -7366,16 +7368,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X40" t="n">
-        <v>788.005982746196</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1246.723135529484</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C41" t="n">
-        <v>877.7606185890727</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D41" t="n">
-        <v>519.4949199823222</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>746.1160070740684</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>746.1160070740684</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7409,13 +7411,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7442,19 +7444,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V41" t="n">
-        <v>2749.696721100612</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W41" t="n">
-        <v>2396.928065830498</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X41" t="n">
-        <v>2023.462307569418</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.322975593606</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>373.0174987734496</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>373.0174987734496</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>225.1044051910565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>78.2144576931461</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7594,25 +7596,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>745.0844353622948</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>523.3178199318208</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
         <v>1636.624422581789</v>
@@ -7649,13 +7651,13 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7679,19 +7681,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3097.195137235408</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2766.132249891837</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.363594621723</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2413.363594621723</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2023.224262645911</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>484.5540527820583</v>
+        <v>263.7614736385282</v>
       </c>
       <c r="C46" t="n">
-        <v>315.6178698541514</v>
+        <v>263.7614736385282</v>
       </c>
       <c r="D46" t="n">
-        <v>315.6178698541514</v>
+        <v>113.6448342261924</v>
       </c>
       <c r="E46" t="n">
-        <v>315.6178698541514</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>315.6178698541514</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7849,7 +7851,7 @@
         <v>666.202517612298</v>
       </c>
       <c r="Y46" t="n">
-        <v>666.202517612298</v>
+        <v>445.4099384687679</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>16.4700942971627</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>137.9989639241788</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988666</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4363177543193</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.25101910053101</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.8840106256811</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716257</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22796,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.5395128120542</v>
+        <v>134.6169967447889</v>
       </c>
       <c r="H5" t="n">
-        <v>39.20253447370999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>121.556279140472</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8650616062745</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95667609450803</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.49366740427195</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.363900538661184</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2215075791689</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2055152876975</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8441152680185</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.89880847102239</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7514918840645</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>91.02074441373236</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>39.36365699972232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5615273012242</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4157117786651</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6495974922333</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2514209487966</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>32.95670269120498</v>
       </c>
     </row>
     <row r="8">
@@ -23021,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>362.492218672534</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>293.9029738731246</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>73.36924101002703</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.49542143817382</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.58955793459728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320305</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23182,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.32302334676456</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.2866524423649</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>104.1486779823913</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>182.2374170652623</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>59.55223036870407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>106.001820158168</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>348.564176506997</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.772586778758551</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23735,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>209.4348714989687</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>189.6053780512267</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.122222967337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>179.0226876267252</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.63308358105655</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.81814676751941</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>24.9167322179639</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.6997797295173</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>154.1943732987685</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.4453316210369</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>42.80506573606974</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>107.5910372856497</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>236.6825798705081</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.24629800934225</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.7769457025059</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.52924591508088</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>61.44380221782404</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>124.9691156450899</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24889,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>11.68732481001945</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.0688818921491</v>
+        <v>215.7838235834846</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>341.8069800164746</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>195.1671555616923</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.21844261925922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.26439296306575</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25369,10 +25371,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>211.6739935392771</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25606,13 +25608,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>137.1238099094096</v>
       </c>
       <c r="X40" t="n">
-        <v>94.15744254776814</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>74.2985680782337</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>321.7031528533602</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4404904106752</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>104.656633250158</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>24.86859442887646</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.77257203050024</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>160.5185476954388</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>404064.1852619029</v>
+        <v>415915.3296617938</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504123.1512803549</v>
+        <v>620570.3592535672</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>789698.3456849991</v>
+        <v>655392.6209103069</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.3456849993</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184601.3067700989</v>
+        <v>188325.9521529218</v>
       </c>
       <c r="C2" t="n">
-        <v>230461.6661952228</v>
+        <v>284318.2477530491</v>
       </c>
       <c r="D2" t="n">
-        <v>361945.0751056244</v>
+        <v>300280.0572231175</v>
       </c>
       <c r="E2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="F2" t="n">
-        <v>361945.0751056244</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="G2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="H2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="I2" t="n">
         <v>361945.0751056243</v>
       </c>
       <c r="J2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="K2" t="n">
         <v>361945.0751056244</v>
@@ -26350,7 +26352,7 @@
         <v>361945.0751056244</v>
       </c>
       <c r="O2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056246</v>
       </c>
       <c r="P2" t="n">
         <v>361945.0751056244</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178589.1710753387</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>494533.549851689</v>
+        <v>59871.45719829781</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>219439.6828815229</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>41522.58517101746</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>122126.633967451</v>
+        <v>15010.5034610989</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>57311.38215281529</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1435.497881577336</v>
+        <v>5160.143264400179</v>
       </c>
       <c r="C4" t="n">
-        <v>1546.498337187017</v>
+        <v>623.9588085248718</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>661.3399741043821</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69822.62854487315</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>89860.11994103168</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,7 +26484,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465176.8940439376</v>
+        <v>-465176.8940439374</v>
       </c>
       <c r="C6" t="n">
-        <v>-19496.631762176</v>
+        <v>-194015.0371975253</v>
       </c>
       <c r="D6" t="n">
-        <v>-241107.062296464</v>
+        <v>149887.1401096836</v>
       </c>
       <c r="E6" t="n">
+        <v>67614.40467370205</v>
+      </c>
+      <c r="F6" t="n">
+        <v>287054.0875552248</v>
+      </c>
+      <c r="G6" t="n">
+        <v>287054.087555225</v>
+      </c>
+      <c r="H6" t="n">
         <v>287054.0875552249</v>
-      </c>
-      <c r="F6" t="n">
-        <v>287054.0875552249</v>
-      </c>
-      <c r="G6" t="n">
-        <v>287054.0875552248</v>
-      </c>
-      <c r="H6" t="n">
-        <v>287054.0875552252</v>
       </c>
       <c r="I6" t="n">
         <v>287054.0875552249</v>
       </c>
       <c r="J6" t="n">
-        <v>237989.1428266802</v>
+        <v>237989.1428266803</v>
       </c>
       <c r="K6" t="n">
-        <v>245531.5023842076</v>
+        <v>195794.1306903472</v>
       </c>
       <c r="L6" t="n">
-        <v>164927.4535877739</v>
+        <v>272043.5840941261</v>
       </c>
       <c r="M6" t="n">
-        <v>287054.0875552249</v>
+        <v>229742.7054024097</v>
       </c>
       <c r="N6" t="n">
         <v>287054.087555225</v>
       </c>
       <c r="O6" t="n">
-        <v>287054.0875552249</v>
+        <v>287054.0875552251</v>
       </c>
       <c r="P6" t="n">
-        <v>287054.0875552249</v>
+        <v>287054.087555225</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>687.3521448913593</v>
+        <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>902.1082727621256</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>348.8610491158145</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>601.423677546338</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26826,7 +26828,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>138.8822039784545</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>402.424555701939</v>
+        <v>48.39760822444157</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.6684278311727</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.3354619494943</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>482.5404062864781</v>
+        <v>59.30872082017483</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>229.9777778559547</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494943</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864781</v>
+        <v>59.30872082017495</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494943</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864781</v>
+        <v>59.30872082017483</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.763224703080839</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29887499042665</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5292203655242</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>234.5252426431076</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>351.4925443245196</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>436.05758233143</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M5" t="n">
-        <v>485.1980796448438</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N5" t="n">
-        <v>493.0490918324723</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>465.5722761912122</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3551663339039</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.3971816548212</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R5" t="n">
-        <v>173.5754137549019</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>62.96698292145469</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T5" t="n">
-        <v>12.09601613773638</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2210579762464671</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.478455556936132</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>14.27876814198843</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>50.90296544714313</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J6" t="n">
-        <v>139.681627859479</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>238.7381501741998</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>321.0129050268561</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6069189657908</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5216494331389</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O6" t="n">
-        <v>351.7621868294488</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P6" t="n">
-        <v>282.3201668328302</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.7235549520578</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>91.79393361398195</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>27.46166352466891</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T6" t="n">
-        <v>5.959213407124142</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09726681295632447</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.239487474394254</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02017045415983</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>37.27476877541995</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J7" t="n">
-        <v>87.63176443967379</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0059083887143</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>184.2779832385785</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M7" t="n">
-        <v>194.2952956452739</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N7" t="n">
-        <v>189.6753877861682</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O7" t="n">
-        <v>175.1959204716534</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9103759940105</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.7901738785953</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>55.73186407594528</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S7" t="n">
-        <v>21.60088625830713</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>5.295991936048177</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06760840769423214</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.626565920651758</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>37.14056823487483</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>139.8131826559271</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>307.8002493079175</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>461.3127847291065</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>572.2993015232529</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>636.7932432146436</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>647.0972236366954</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>611.0355587632145</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>521.504712597124</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>391.6283205637828</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>227.8072715131412</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>82.64037091685202</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.87529231765308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2901252736521406</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.940383831978912</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>18.74002279832265</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>66.8070749168178</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>183.3237198449901</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>313.3294365875772</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>421.310094746123</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>491.6490086553584</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>504.661494967182</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>461.6666742691229</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>370.528207353938</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>247.6882940610274</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>120.4740066907609</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>36.04177863346792</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.821108515739557</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1276568310512442</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.626752623013669</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.46330968461245</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>48.9208879720838</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>115.0114104470664</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>188.9990774737699</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>241.853749061505</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>255.0008679874972</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>248.9375173017192</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>229.9340889328776</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>196.7483354233986</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>136.2183491870809</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>73.14471339477822</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>28.34986162106548</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.950670298331129</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08873196125529113</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33667,7 +33669,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
         <v>738.1512123099059</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34463,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.47933811642133</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K5" t="n">
-        <v>131.4026932795391</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L5" t="n">
-        <v>200.2911673614427</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M5" t="n">
-        <v>254.8518464175711</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N5" t="n">
-        <v>263.6360282358814</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>235.4740647695254</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1221705786343</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.09149178037174</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.8440011928123</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K6" t="n">
-        <v>100.8967111998408</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>182.4585252469819</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>232.4728850437725</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1799373498056</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>209.1659423850043</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>148.3457594185</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.74178086603627</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.99265021817888</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L7" t="n">
-        <v>49.39330695734026</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M7" t="n">
-        <v>55.36951169766883</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>61.98984332093497</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O7" t="n">
-        <v>36.73938201981062</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P7" t="n">
-        <v>12.18237194486287</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>126.7543447812312</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>241.2229336841259</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>336.5328865532657</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>406.4470099873708</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>417.6841600401045</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>380.9373473415277</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>290.2717168418545</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>169.3226306893334</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>12.22173369900909</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>56.48609317832342</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>175.4879976132182</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>282.7557149662488</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>349.5149747333401</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>373.3197828838487</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>319.0704298246785</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>236.5537999396078</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>107.7065199750059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>59.98581930323448</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>106.9690727802667</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>116.0750840398921</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>121.251972836486</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>91.4775504810348</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>59.02033137425096</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37315,7 +37317,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -38111,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
